--- a/DOWNLOADS/EDITAIS/U_389179_E_900112025/U_389179_E_900112025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_389179_E_900112025/U_389179_E_900112025_master.xlsx
@@ -145,55 +145,55 @@
     <t>Impressora multifuncional Impressora Multifuncional Tipo Impressão: Laser, Resolução Impressão: 1200 X 1200DPI, Tensão Alimentação: 127V, Resolução Copiadora: 600 X 600DPI, Capacidade Redução Ampliação: 25 A 400PER, Velocidade Impressão Preto E Branco: 45PPM, Velocidade Impressão Colorida: 2PPM, Velocidade Copiadora Preto E Branco: 42CPM, Velocidade Copiadora Colorida: 8CPM, Resolução Scanner: 600 X 600DPI, Capacidade Mínima Bandeja: 550FL, Frequência: 60HZ</t>
   </si>
   <si>
-    <t>Monitor 24 polegadas: Descrição: Monitor LED 24 polegadas, resolução LED Full HD (1920x1080), conexões HDMI e VGA. Especificações Técnicas: Tamanho: 24 polegadas Resolução: 1920x1080 (LED Full HD) Conexões: HDMI, VGA Base com ajuste de altura e possibilidade de rotacionar monitor Necessidades Específicas: Qualidade de imagem para trabalho com documentos e navegação na internet. Modelo de referência: Monitor Samsung 24" Full HD, (ex: Monitor Aoc 23.8" Wva - 24p1u) ou similar.</t>
-  </si>
-  <si>
-    <t>Fone de ouvido com microfone para computador: Descrição: Headset com microfone com cancelamento de ruído, conexão USB ou P2, controle de volume e microfone no cabo. Especificações Técnicas: Conexão: USB ou P2 Microfone com cancelamento de ruído Controle de volume e microfone no cabo Necessidades Específicas: Qualidade de áudio para videoconferências e comunicação online. Modelo de referência: Headset Logitech H390 ou similar.</t>
-  </si>
-  <si>
-    <t>Projetor Full HD: Descrição: Projetor Full HD (1920x1080), brilho de 3500 lumens ou superior, tecnologia DLP ou 3LCD, conexões HDMI, VGA e USB. Especificações Técnicas: Resolução: 1920x1080 (Full HD) Brilho: 3500 lumens ou superior Tecnologia: DLP ou 3LCD Conexões: HDMI, VGA, USB Necessidades Específicas: Apresentações e projeção de vídeos em alta definição no auditório do Cremero. Modelo d referência: Projetor Epson PowerLite E20 ou similar</t>
-  </si>
-  <si>
-    <t>Tablet com capa e Teclado: Kit Completo Tablet Tela: 11 polegadas ou superior, sensível ao toque, com resolução mínima Full HD. Processador: De alto desempenho, com no mínimo 8 núcleos (octa-core). Memória RAM: 8 GB ou superior. Armazenamento Interno: 128 GB ou superior. Conectividade: Wi-Fi e 4G/5G integrados. Sistema Operacional: Android 13 ou superior (ou equivalente com suporte oficial). Bateria: Autonomia mínima de 10 horas de uso moderado. Recursos adicionais: Câmeras frontal e traseira, GPS, sensor de luz, acelerômetro. Modelo de Referência: Samsung Galaxy Tab S9 ou similar. Capa com Teclado Integrado Compatibilidade: Deve ser compatível com o tablet ofertado (tamanho e modelo). Tipo: Capa protetora com teclado acoplado (integrado), com conexão Bluetooth ou direta ao tablet. Layout do Teclado: Preferencialmente padrão ABNT2 (com Ç). Função: Proteção do tablet e praticidade para digitação, com suporte de base ajustável para uso em superfícies. Alimentação: Recarregável via USB ou conectada diretamente ao tablet (conforme modelo</t>
-  </si>
-  <si>
-    <t>Cabo de rede, caixa com 300m: Descrição: Cabo de rede Cat6 UTP, caixa com 300 metros. Especificações Técnicas: Categoria: Cat6 Tipo: UTP Metragem: 300 metros Necessidades Específicas: Infraestrutura de rede para conexão de computadores e outros dispositivos.</t>
-  </si>
-  <si>
-    <t>Conector RJ45 Descrição: Conectores RJ45 Cat6. Especificações Técnicas: Categoria: Cat6 Necessidades Específicas: Montagem de cabos de rede</t>
-  </si>
-  <si>
-    <t>Cabo HDMI 2.0 de 30m: Descrição: Cabo HDMI 2.0 de 30 metros. Especificações Técnicas: Versão: 2.0 Metragem: 30 metros Necessidades Específicas: Conexão de dispositivos HDMI em longas distâncias</t>
-  </si>
-  <si>
-    <t>Scanner : Descrição: Scanner de mesa com alimentador automático de documentos (ADF), digitalização em alta resolução, conexão Wi-Fi e Ethernet. Especificações Técnicas: Tipo: Mesa com ADF Resolução: Alta resolução Velocidade: 60 folhas/min Recursos: Digitalização duplex Conexões: Wi-Fi, Ethernet Necessidades Específicas: Digitalização de documentos em grande volume com alta qualidade. Modelo de referência: Scanner Brother 4900w ou similar.</t>
-  </si>
-  <si>
-    <t>Mouse pad: Descrição: Mouse pad ergonômico com apoio de pulso. Especificações Técnicas: Ergonômico Com apoio de pulso Necessidades Específicas: Conforto e ergonomia para o uso do mouse</t>
-  </si>
-  <si>
-    <t>Microfone sem fio duplo para auditório: Descrição: Sistema de microfone sem fio com receptor, com alcance de 80m ou superior Especificações Técnicas: Sistema sem fio com receptor Alcance: 80 metros ou superior Saídas do receptor 1x6,3mm, 2 x XLR balanceado Sensibilidade: -95dBm Bateria de Lítio recarregável Vida util da bateria: &gt;8h Necessidades Específicas: Apresentações e eventos em auditório. Modelo de referência: Sistema de microfone sem fio Profissional Duplo Armer Ax802m</t>
-  </si>
-  <si>
-    <t>Câmera PTZ zoom 30x óptico: Descrição: Câmera PTZ com zoom óptico de 30x, resolução Full HD, controle remoto, conexões HDMI e Ethernet. Especificações Técnicas: Zoom óptico: 30x Resolução: Full HD Controle remoto Conexões: HDMI, Ethernet Necessidades Específicas: Transmissão de videoconferências e eventos com alta qualidade de imagem. Modelo de referência: Câmera PTZ Logitech Rally Camera ou similar</t>
-  </si>
-  <si>
-    <t>Interface controladora de câmeras PTZ: Descrição: Controladora física para câmeras PTZ com joystick, botões programáveis e tela LCD. Especificações Técnicas: Joystick para controle de pan, tilt e zoom Botões programáveis para presets e funções Tela LCD para visualização de configurações Compatibilidade com protocolo IP e serial Necessidades Específicas: Controle preciso e intuitivo das câmeras PTZ durante videoconferências e eventos. Modelo de referência: Controladora PTZ Marshall VS-PTC-200 ou similar</t>
-  </si>
-  <si>
-    <t>Nobreaks de 600VA: Descrição: Nobreak com potência de 600VA, proteção contra surtos e quedas de energia, autonomia para equipamentos essenciais. Especificações Técnicas: Potência: 600VA Proteção contra surtos e quedas de energia Autonomia para equipamentos essenciais Necessidades Específicas: Proteção de equipamentos eletrônicos contra variações de energia. Modelo de referência: Nobreak SMS Manager Net 600VA ou simila r</t>
-  </si>
-  <si>
-    <t>Teclado: Descrição: Teclado padrão ABNT2, com fio USB, teclas de perfil baixo, com teclado numérico. Especificações Técnicas: Padrão: ABNT2 Conexão: USB Teclas: Perfil baixo</t>
-  </si>
-  <si>
-    <t>Mouse: Descrição: Mouse com fio USB, design ambidestro Especificações Técnicas: Cabo com comprimento de 1.8m Cor: Preto Sensor ótico</t>
-  </si>
-  <si>
-    <t>Licença Windows Servidor 2022 ou superior Descrição: Licença do sistema operacional Windows Server 2022, edição Standard, conforme necessidade, para utilização em ambiente de servidores. Especificações Técnicas: Versão: Windows Server 2022 Edição: Standard</t>
-  </si>
-  <si>
-    <t>Impressoras multifuncionais monocromática Brother MFC-L6902DW Modelo:MFCL6902DW Funcões: Impressão Duplex, cópia, digitação e fax Velocidade de impressão: 50 ppm Digitalização: 80 folhas por minuto Capacidade de entrada de papel: 520 folhas Sistema operacional: Windows, Mac OS,Linux Conectividade: Wireless 802.11 b/g/n, Ethernet 10/100 Base-TX, Wi Fi Direct, Hi-Speed USB 2.0 Alimentação:CA 127V, 50/60Hz Resolução Máxima de impressão:1200 x 1200 dpi Ciclo Mensal Máximo (Páginas):10.000</t>
+    <t>Descrição: Monitor LED 24 polegadas, resolução LED Full HD (1920x1080), conexões HDMI e VGA. Especificações Técnicas: Tamanho: 24 polegadas. Resolução: 1920x1080 (LED Full HD). Conexões: HDMI, VGA. Base com ajuste de altura e possibilidade de rotacionar monitor.</t>
+  </si>
+  <si>
+    <t>Descrição: Headset com microfone com cancelamento de ruído, conexão USB ou P2, controle de volume e microfone no cabo. Especificações Técnicas: Conexão: USB ou P2.</t>
+  </si>
+  <si>
+    <t>Descrição: Projetor Full HD (1920x1080), brilho de 3500 lumens ou superior, tecnologia DLP ou 3LCD, conexões HDMI, VGA, USB. Especificações Técnicas: Resolução: 1920x1080 (Full HD). Brilho: 3500 lumens ou superior. Tecnologia: DLP ou 3LCD. Conexões: HDMI, VGA, USB.</t>
+  </si>
+  <si>
+    <t>Descrição: Tablet de 11 polegadas ou superior, sensível ao toque, resolução mínima Full HD, processador octa‑core, memória RAM 8 GB ou superior, armazenamento interno 128 GB ou superior, conectividade Wi‑Fi e 4G/5G integrados. Especificações Técnicas: Tela: 11 polegadas ou superior, sensível ao toque, resolução mínima Full HD. Processador: 8 núcleos ou superior. Memória RAM: 8 GB ou superior. Armazenamento interno: 128 GB ou superior. Conectividade: Wi‑Fi e 4G/5G integrados. Capa com teclado integrado: Compatível com o tablet, tipo de teclado ABNT2, conexão USB, layout padrão, suporte de base ajustável.</t>
+  </si>
+  <si>
+    <t>Descrição: Cabo de rede Cat6 UTP, caixa com 300 metros. Especificações Técnicas: Categoria: Cat6. Tipo: UTP. Metragem: 300 metros.</t>
+  </si>
+  <si>
+    <t>Descrição: Conector RJ45 Cat6, modelo RJ45, conexão padrão de rede. Especificações Técnicas: Tipo: RJ45, Conector: RJ45 Cat6.</t>
+  </si>
+  <si>
+    <t>Descrição: Cabo HDMI 2.0 de 30 metros, versão 2.0, conexão de dispositivos HDMI em longas distâncias. Especificações Técnicas: Versão: 2.0. Metragem: 30 metros.</t>
+  </si>
+  <si>
+    <t>Descrição: Scanner de mesa com alimentador automático de documentos (ADF), digitalização em alta resolução, conexão Wi‑Fi e Ethernet. Especificações Técnicas: Tipo: Mesa com ADF. Resolução: Alta resolução. Velocidade: 60 folhas/min. Conexões: Wi‑Fi, Ethernet.</t>
+  </si>
+  <si>
+    <t>Descrição: Mouse pad ergonômico com apoio de pulso. Especificações Técnicas: Ergonômico, apoio de pulso.</t>
+  </si>
+  <si>
+    <t>Descrição: Sistema de microfone sem fio com receptor, alcance de 80 metros ou superior. Especificações Técnicas: Sistema sem fio com receptor. Alcance: 80 metros ou superior. Saídas do receptor: 1x6,3mm, 2 x XLR balanceado.</t>
+  </si>
+  <si>
+    <t>Descrição: Câmera PTZ com zoom óptico de 30x, resolução Full HD, controle remoto, conexões HDMI e Ethernet. Especificações Técnicas: Zoom óptico: 30x. Resolução: Full HD. Controle remoto. Conexões: HDMI, Ethernet.</t>
+  </si>
+  <si>
+    <t>Descrição: Controladora física para câmeras PTZ com joystick, botões programáveis e tela LCD. Especificações Técnicas: Joystick para controle de pan, tilt e zoom. Botões programáveis para presets e funções. Tela LCD.</t>
+  </si>
+  <si>
+    <t>Descrição: Nobreak com potência de 600VA, proteção contra surtos e quedas de energia, autonomia para equipamentos essenciais. Especificações Técnicas: Potência: 600VA.</t>
+  </si>
+  <si>
+    <t>Descrição: Teclado padrão ABNT2, com fio USB, teclas de perfil baixo, teclado numérico. Especificações Técnicas: Padrão: ABNT2.</t>
+  </si>
+  <si>
+    <t>Descrição: Mouse com fio USB, design ambidestro, cabo de 1,8 metros, cor preta, sensor ótico. Especificações Técnicas: Sensor ótico, cabo 1,8m, cor preta.</t>
+  </si>
+  <si>
+    <t>Descrição: Licença do sistema operacional Windows Server 2022, edição Standard, conforme necessidade, para utilização em ambiente de servidores. Especificações Técnicas: Versão: Windows Server 2022. Edição: Standard.</t>
+  </si>
+  <si>
+    <t>Descrição: Impressora multifuncional monocromática Brother MFC‑L6902DW, tipo laser, resolução 1200×1200 DPI, velocidade impressão 50 ppm em preto e branco, 2 ppm em cores, velocidade digitalização 80 folhas/min, voltagem 127 V, frequência 60 Hz, recursos de cópia duplex, fax e conexão 10 BASE‑TX. Especificações Técnicas: Impressão: Laser. Resolução: 1200×1200 DPI. Velocidade impressão PB: 50 ppm. Velocidade impressão cores: 2 ppm. Velocidade digitalização: 80 folhas/min. Conectividade: 10 BASE‑TX, Wi‑Fi, Ethernet.</t>
   </si>
   <si>
     <t>Unidade</t>
